--- a/Python 28.02.25.xlsx
+++ b/Python 28.02.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8772" tabRatio="895" firstSheet="11" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8772" tabRatio="895" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="26" r:id="rId1"/>
@@ -34298,15 +34298,9 @@
     <t>Тази настройка позволява контролирано присвояване на стойност с валидиране, запазвайки целостта на данните</t>
   </si>
   <si>
-    <t xml:space="preserve">    def name(self):</t>
-  </si>
-  <si>
     <t xml:space="preserve">    @name.setter</t>
   </si>
   <si>
-    <t xml:space="preserve">    def name(self, new_value):</t>
-  </si>
-  <si>
     <t xml:space="preserve">            raise ValueError('Parent name connot be empty')</t>
   </si>
   <si>
@@ -34495,32 +34489,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The setter method </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is called with new_value set to "Parent"</t>
     </r>
   </si>
   <si>
@@ -40121,18 +40089,104 @@
   </si>
   <si>
     <t>Когато в file2 импортираме променлива от file1(name) и принтираме file2 -&gt; програмата отива в file1 и започва да принтира всичко. Затова това което не искаме да се принтира от file1 го слагаме в if __name__ == "main":</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The setter method </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is called with new_value set to "Parent"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(self, new_value):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(self):</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="110">
+  <fonts count="111">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -41512,7 +41566,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -41525,7 +41579,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -41551,52 +41605,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -41604,99 +41658,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -41710,64 +41764,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -41779,317 +41833,317 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="109" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -43399,6 +43453,53 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>536029</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>173420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>583325</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>21019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1495097" y="40288779"/>
+          <a:ext cx="1135117" cy="47296"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -44002,7 +44103,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -44121,10 +44222,10 @@
         <v>4230</v>
       </c>
       <c r="E6" s="363" t="s">
-        <v>4505</v>
+        <v>4502</v>
       </c>
       <c r="F6" s="363" t="s">
-        <v>4723</v>
+        <v>4720</v>
       </c>
       <c r="G6" s="363"/>
       <c r="H6" s="363"/>
@@ -44194,23 +44295,23 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="25" t="s">
-        <v>4719</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="368" t="s">
+        <v>4715</v>
+      </c>
+      <c r="D4" t="s">
         <v>4718</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4721</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="369" t="s">
-        <v>4720</v>
+        <v>4717</v>
       </c>
       <c r="D5" t="s">
-        <v>4722</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -48639,37 +48740,37 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="25" t="s">
-        <v>4457</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="B147" t="s">
-        <v>4458</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="25" t="s">
-        <v>4459</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="B150" t="s">
-        <v>4486</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="B151" t="s">
-        <v>4487</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="B152" t="s">
-        <v>4488</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="B154" s="25" t="s">
-        <v>4460</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -48677,7 +48778,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="C156" s="356" t="s">
-        <v>4461</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -48687,57 +48788,57 @@
     </row>
     <row r="158" spans="1:4">
       <c r="D158" t="s">
-        <v>4462</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="C160" s="356" t="s">
-        <v>4463</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="161" spans="2:4">
       <c r="D161" t="s">
-        <v>4466</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="162" spans="2:4">
       <c r="D162" t="s">
-        <v>4468</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="163" spans="2:4">
       <c r="D163" t="s">
-        <v>4464</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="165" spans="2:4">
       <c r="D165" t="s">
-        <v>4465</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="166" spans="2:4">
       <c r="D166" t="s">
-        <v>4467</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="167" spans="2:4">
       <c r="D167" t="s">
-        <v>4469</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="169" spans="2:4">
       <c r="C169" s="356" t="s">
-        <v>4470</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="171" spans="2:4">
       <c r="B171" s="25" t="s">
-        <v>4471</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="C173" s="25" t="s">
-        <v>4472</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="174" spans="2:4">
@@ -48747,27 +48848,27 @@
     </row>
     <row r="175" spans="2:4">
       <c r="D175" t="s">
-        <v>4473</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="C177" s="25" t="s">
-        <v>4474</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="178" spans="2:4">
       <c r="D178" t="s">
-        <v>4475</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="D179" t="s">
-        <v>4476</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="C181" s="25" t="s">
-        <v>4477</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="182" spans="2:4">
@@ -48777,42 +48878,42 @@
     </row>
     <row r="183" spans="2:4">
       <c r="D183" t="s">
-        <v>4478</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="B185" s="25" t="s">
-        <v>4479</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="186" spans="2:4">
       <c r="C186" s="356" t="s">
-        <v>4480</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="187" spans="2:4">
       <c r="C187" s="356" t="s">
-        <v>4481</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="C188" s="356" t="s">
-        <v>4482</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="C189" s="356" t="s">
-        <v>4483</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="B191" s="25" t="s">
-        <v>4484</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="C192" s="356" t="s">
-        <v>4485</v>
+        <v>4482</v>
       </c>
     </row>
   </sheetData>
@@ -48828,8 +48929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M360"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -50413,7 +50514,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="B216" t="s">
-        <v>4280</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -50423,23 +50524,23 @@
     </row>
     <row r="219" spans="1:5">
       <c r="B219" t="s">
-        <v>4272</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="B220" t="s">
-        <v>4289</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="B222" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="E222" s="337"/>
     </row>
     <row r="223" spans="1:5">
       <c r="B223" t="s">
-        <v>4274</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -50449,12 +50550,12 @@
     </row>
     <row r="225" spans="2:8">
       <c r="B225" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="226" spans="2:8">
       <c r="B226" t="s">
-        <v>4290</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="228" spans="2:8">
@@ -50469,20 +50570,20 @@
     </row>
     <row r="231" spans="2:8">
       <c r="B231" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="H231" s="26" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="233" spans="2:8">
       <c r="B233" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="234" spans="2:8">
       <c r="B234" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="H234" s="26" t="s">
         <v>499</v>
@@ -50490,7 +50591,7 @@
     </row>
     <row r="237" spans="2:8" ht="15">
       <c r="C237" s="214" t="s">
-        <v>4297</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="238" spans="2:8">
@@ -50503,12 +50604,12 @@
     </row>
     <row r="240" spans="2:8">
       <c r="D240" t="s">
-        <v>4281</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="241" spans="4:5">
       <c r="D241" t="s">
-        <v>4282</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="243" spans="4:5">
@@ -50518,7 +50619,7 @@
     </row>
     <row r="244" spans="4:5">
       <c r="E244" t="s">
-        <v>4283</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="246" spans="4:5">
@@ -50538,50 +50639,50 @@
     </row>
     <row r="250" spans="4:5">
       <c r="D250" t="s">
-        <v>4284</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="251" spans="4:5">
       <c r="D251" t="s">
-        <v>4285</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="254" spans="4:5">
       <c r="D254" s="25" t="s">
-        <v>4304</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="255" spans="4:5">
       <c r="E255" t="s">
-        <v>4305</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="256" spans="4:5">
       <c r="E256" t="s">
-        <v>4306</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="258" spans="3:5">
       <c r="C258" s="99" t="s">
-        <v>4308</v>
+        <v>4305</v>
       </c>
       <c r="D258" t="s">
-        <v>4307</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="262" spans="3:5">
       <c r="C262" s="25" t="s">
-        <v>4299</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="263" spans="3:5">
       <c r="D263" s="349" t="s">
-        <v>4286</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="264" spans="3:5">
       <c r="E264" t="s">
-        <v>4291</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="265" spans="3:5">
@@ -50591,12 +50692,12 @@
     </row>
     <row r="266" spans="3:5">
       <c r="E266" t="s">
-        <v>4287</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="267" spans="3:5">
       <c r="E267" t="s">
-        <v>4288</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="268" spans="3:5">
@@ -50611,7 +50712,7 @@
     </row>
     <row r="271" spans="3:5">
       <c r="C271" s="25" t="s">
-        <v>4298</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="272" spans="3:5">
@@ -50619,47 +50720,47 @@
     </row>
     <row r="273" spans="3:5">
       <c r="D273" t="s">
-        <v>4293</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="274" spans="3:5">
       <c r="D274" t="s">
-        <v>4292</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="275" spans="3:5">
       <c r="E275" t="s">
-        <v>4294</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="276" spans="3:5">
       <c r="E276" t="s">
-        <v>4295</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="277" spans="3:5">
       <c r="D277" t="s">
-        <v>4296</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="280" spans="3:5">
       <c r="C280" s="25" t="s">
-        <v>4299</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="281" spans="3:5">
       <c r="D281" t="s">
-        <v>4300</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="282" spans="3:5">
       <c r="D282" t="s">
-        <v>4301</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="283" spans="3:5">
       <c r="D283" t="s">
-        <v>4302</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="286" spans="3:5">
@@ -50670,7 +50771,7 @@
     <row r="287" spans="3:5">
       <c r="C287" s="25"/>
       <c r="D287" t="s">
-        <v>4303</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="288" spans="3:5">
@@ -50680,24 +50781,24 @@
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="25" t="s">
-        <v>4309</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="B291" s="25" t="s">
-        <v>4320</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="B292" s="25"/>
       <c r="C292" s="350" t="s">
-        <v>4328</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="B293" s="25"/>
       <c r="C293" s="350" t="s">
-        <v>4329</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -50705,17 +50806,17 @@
     </row>
     <row r="296" spans="1:9">
       <c r="C296" t="s">
-        <v>4313</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="C297" t="s">
-        <v>4310</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="C298" t="s">
-        <v>4323</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -50725,45 +50826,45 @@
     </row>
     <row r="300" spans="1:9">
       <c r="C300" s="350" t="s">
-        <v>4316</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="C301" t="s">
-        <v>4322</v>
+        <v>4319</v>
       </c>
       <c r="I301" s="26" t="s">
-        <v>4324</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="C302" t="s">
-        <v>4321</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="C303" t="s">
-        <v>4325</v>
+        <v>4322</v>
       </c>
       <c r="I303" s="26" t="s">
-        <v>4326</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="306" spans="2:8">
       <c r="B306" s="25" t="s">
-        <v>4312</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="307" spans="2:8">
       <c r="B307" s="25"/>
       <c r="C307" s="350" t="s">
-        <v>4318</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="308" spans="2:8">
       <c r="B308" s="25"/>
       <c r="C308" s="350" t="s">
-        <v>4319</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="309" spans="2:8">
@@ -50771,17 +50872,17 @@
     </row>
     <row r="310" spans="2:8">
       <c r="C310" t="s">
-        <v>4313</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="311" spans="2:8">
       <c r="C311" t="s">
-        <v>4310</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="312" spans="2:8">
       <c r="C312" t="s">
-        <v>4314</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="313" spans="2:8">
@@ -50791,92 +50892,92 @@
     </row>
     <row r="314" spans="2:8">
       <c r="C314" t="s">
-        <v>4315</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="315" spans="2:8">
       <c r="C315" t="s">
-        <v>4311</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="317" spans="2:8">
       <c r="C317" s="350" t="s">
-        <v>4316</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="318" spans="2:8">
       <c r="C318" t="s">
-        <v>4317</v>
+        <v>4314</v>
       </c>
       <c r="H318" s="26" t="s">
-        <v>4327</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="321" spans="2:11">
       <c r="B321" s="25" t="s">
-        <v>4330</v>
+        <v>4327</v>
       </c>
       <c r="C321" s="25" t="s">
-        <v>4344</v>
+        <v>4341</v>
       </c>
       <c r="G321" s="25" t="s">
-        <v>4331</v>
+        <v>4328</v>
       </c>
       <c r="K321" s="25" t="s">
-        <v>4346</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="322" spans="2:11">
       <c r="B322" s="25" t="s">
-        <v>4332</v>
+        <v>4329</v>
       </c>
       <c r="C322" t="s">
-        <v>4333</v>
+        <v>4330</v>
       </c>
       <c r="G322" t="s">
-        <v>4334</v>
+        <v>4331</v>
       </c>
       <c r="K322" t="s">
-        <v>4362</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="323" spans="2:11">
       <c r="B323" s="25" t="s">
-        <v>4335</v>
+        <v>4332</v>
       </c>
       <c r="C323" t="s">
-        <v>4336</v>
+        <v>4333</v>
       </c>
       <c r="G323" t="s">
-        <v>4337</v>
+        <v>4334</v>
       </c>
       <c r="K323" t="s">
-        <v>4363</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="324" spans="2:11">
       <c r="B324" s="25" t="s">
-        <v>4338</v>
+        <v>4335</v>
       </c>
       <c r="C324" t="s">
-        <v>4339</v>
+        <v>4336</v>
       </c>
       <c r="G324" t="s">
-        <v>4340</v>
+        <v>4337</v>
       </c>
       <c r="K324" t="s">
-        <v>4364</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="325" spans="2:11">
       <c r="B325" s="25" t="s">
-        <v>4341</v>
+        <v>4338</v>
       </c>
       <c r="C325" t="s">
-        <v>4342</v>
+        <v>4339</v>
       </c>
       <c r="G325" t="s">
-        <v>4343</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="326" spans="2:11">
@@ -50889,7 +50990,7 @@
     </row>
     <row r="328" spans="2:11">
       <c r="B328" s="350" t="s">
-        <v>4345</v>
+        <v>4342</v>
       </c>
       <c r="C328" s="25"/>
     </row>
@@ -50903,18 +51004,18 @@
     </row>
     <row r="331" spans="2:11">
       <c r="B331" s="25" t="s">
-        <v>4346</v>
+        <v>4343</v>
       </c>
       <c r="C331" s="25"/>
     </row>
     <row r="332" spans="2:11">
       <c r="C332" s="351" t="s">
-        <v>4347</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="333" spans="2:11">
       <c r="C333" s="352" t="s">
-        <v>4349</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="334" spans="2:11">
@@ -50922,35 +51023,35 @@
     </row>
     <row r="335" spans="2:11">
       <c r="C335" t="s">
-        <v>4350</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="336" spans="2:11">
       <c r="C336" t="s">
-        <v>4310</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="337" spans="3:10">
       <c r="C337" t="s">
-        <v>4351</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="339" spans="3:10">
       <c r="C339" s="352" t="s">
-        <v>4316</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="340" spans="3:10">
       <c r="C340" t="s">
-        <v>4352</v>
+        <v>4349</v>
       </c>
       <c r="J340" s="26" t="s">
-        <v>4348</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="343" spans="3:10">
       <c r="C343" s="25" t="s">
-        <v>4361</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="344" spans="3:10">
@@ -50958,45 +51059,45 @@
     </row>
     <row r="345" spans="3:10">
       <c r="C345" t="s">
-        <v>4353</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="346" spans="3:10">
       <c r="C346" t="s">
-        <v>4310</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="347" spans="3:10">
       <c r="C347" t="s">
-        <v>4355</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="349" spans="3:10">
       <c r="C349" t="s">
-        <v>4354</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="350" spans="3:10">
       <c r="C350" t="s">
-        <v>4358</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="351" spans="3:10">
       <c r="C351" t="s">
-        <v>4356</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="353" spans="3:8">
       <c r="C353" s="352" t="s">
-        <v>4357</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="354" spans="3:8">
       <c r="C354" s="352" t="s">
-        <v>4359</v>
+        <v>4356</v>
       </c>
       <c r="H354" s="26" t="s">
-        <v>4360</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="357" spans="3:8">
@@ -51006,17 +51107,17 @@
     </row>
     <row r="358" spans="3:8">
       <c r="D358" s="352" t="s">
-        <v>4366</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="359" spans="3:8">
       <c r="D359" s="352" t="s">
-        <v>4365</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="360" spans="3:8">
       <c r="D360" s="352" t="s">
-        <v>4367</v>
+        <v>4364</v>
       </c>
     </row>
   </sheetData>
@@ -54816,7 +54917,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="89" t="s">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="B423" s="21"/>
       <c r="C423" s="21"/>
@@ -54824,7 +54925,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="20" t="s">
-        <v>4399</v>
+        <v>4396</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -54832,7 +54933,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="20" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -54846,7 +54947,7 @@
     </row>
     <row r="427" spans="1:9">
       <c r="A427" s="20" t="s">
-        <v>4401</v>
+        <v>4398</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -54863,39 +54964,39 @@
     <row r="429" spans="1:9">
       <c r="A429" s="22"/>
       <c r="B429" s="38" t="s">
-        <v>4402</v>
+        <v>4399</v>
       </c>
       <c r="C429" s="23"/>
       <c r="D429" s="17"/>
     </row>
     <row r="432" spans="1:9">
       <c r="A432" s="25" t="s">
-        <v>4560</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="433" spans="2:5">
       <c r="B433" t="s">
-        <v>4568</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="434" spans="2:5">
       <c r="C434" t="s">
-        <v>4571</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="435" spans="2:5">
       <c r="C435" t="s">
-        <v>4569</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="436" spans="2:5">
       <c r="C436" t="s">
-        <v>4572</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="437" spans="2:5">
       <c r="C437" t="s">
-        <v>4573</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="439" spans="2:5">
@@ -54905,42 +55006,42 @@
     </row>
     <row r="440" spans="2:5">
       <c r="B440" s="32" t="s">
-        <v>4575</v>
+        <v>4572</v>
       </c>
       <c r="E440" s="359" t="s">
-        <v>4563</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="441" spans="2:5">
       <c r="B441" s="32" t="s">
-        <v>4576</v>
+        <v>4573</v>
       </c>
       <c r="E441" s="359" t="s">
-        <v>4564</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="442" spans="2:5">
       <c r="B442" s="32" t="s">
-        <v>4577</v>
+        <v>4574</v>
       </c>
       <c r="E442" s="359" t="s">
-        <v>4565</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="443" spans="2:5">
       <c r="B443" s="32" t="s">
-        <v>4578</v>
+        <v>4575</v>
       </c>
       <c r="E443" s="359" t="s">
-        <v>4566</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="444" spans="2:5">
       <c r="B444" s="360" t="s">
-        <v>4579</v>
+        <v>4576</v>
       </c>
       <c r="E444" s="359" t="s">
-        <v>4567</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="445" spans="2:5">
@@ -54950,7 +55051,7 @@
     </row>
     <row r="447" spans="2:5">
       <c r="B447" t="s">
-        <v>4574</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="449" spans="2:2">
@@ -54960,22 +55061,22 @@
     </row>
     <row r="451" spans="2:2">
       <c r="B451" t="s">
-        <v>4580</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="452" spans="2:2">
       <c r="B452" t="s">
-        <v>4570</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="453" spans="2:2">
       <c r="B453" t="s">
-        <v>4561</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="455" spans="2:2">
       <c r="B455" t="s">
-        <v>4562</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="456" spans="2:2">
@@ -72017,113 +72118,113 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="25" t="s">
-        <v>4416</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="B163" t="s">
-        <v>4417</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="B164" t="s">
-        <v>4418</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="B166" s="25" t="s">
-        <v>4419</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="B167" s="25"/>
       <c r="C167" s="25" t="s">
-        <v>4420</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="D168" t="s">
-        <v>4421</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="D169" t="s">
-        <v>4422</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="C171" s="25" t="s">
-        <v>4423</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="D172" t="s">
-        <v>4424</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="D173" t="s">
-        <v>4425</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="E174" s="355" t="s">
-        <v>4429</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="E175" s="355" t="s">
-        <v>4430</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="E176" s="355" t="s">
-        <v>4431</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="177" spans="2:6">
       <c r="E177" s="355" t="s">
-        <v>4432</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="178" spans="2:6">
       <c r="E178" s="355" t="s">
-        <v>4433</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="F179" t="s">
-        <v>4434</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="180" spans="2:6">
       <c r="F180" t="s">
-        <v>4435</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="182" spans="2:6">
       <c r="C182" s="25" t="s">
-        <v>4426</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="D183" t="s">
-        <v>4427</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" s="25" t="s">
-        <v>4332</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="186" spans="2:6">
       <c r="C186" t="s">
-        <v>4428</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" s="25" t="s">
-        <v>4441</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="189" spans="2:6">
@@ -72131,7 +72232,7 @@
     </row>
     <row r="190" spans="2:6">
       <c r="B190" s="25" t="s">
-        <v>4449</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="191" spans="2:6">
@@ -72139,32 +72240,32 @@
     </row>
     <row r="192" spans="2:6">
       <c r="C192" t="s">
-        <v>4436</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="194" spans="2:3">
       <c r="C194" t="s">
-        <v>4437</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="195" spans="2:3">
       <c r="C195" t="s">
-        <v>4442</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="196" spans="2:3">
       <c r="C196" t="s">
-        <v>4438</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="198" spans="2:3">
       <c r="C198" t="s">
-        <v>4439</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="199" spans="2:3">
       <c r="C199" t="s">
-        <v>4443</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="200" spans="2:3">
@@ -72174,22 +72275,22 @@
     </row>
     <row r="201" spans="2:3">
       <c r="C201" t="s">
-        <v>4440</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="25" t="s">
-        <v>4448</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="205" spans="2:3">
       <c r="C205" t="s">
-        <v>4444</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="206" spans="2:3">
       <c r="C206" t="s">
-        <v>4446</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="207" spans="2:3">
@@ -72199,47 +72300,47 @@
     </row>
     <row r="208" spans="2:3">
       <c r="C208" t="s">
-        <v>4445</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="25" t="s">
-        <v>4447</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="212" spans="2:3">
       <c r="C212" t="s">
-        <v>4450</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="213" spans="2:3">
       <c r="C213" t="s">
-        <v>4452</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="214" spans="2:3">
       <c r="C214" t="s">
-        <v>4451</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="25" t="s">
-        <v>4453</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="217" spans="2:3">
       <c r="C217" s="355" t="s">
-        <v>4454</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="C218" s="355" t="s">
-        <v>4455</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="219" spans="2:3">
       <c r="C219" s="355" t="s">
-        <v>4456</v>
+        <v>4453</v>
       </c>
     </row>
   </sheetData>
@@ -72567,133 +72668,133 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="25" t="s">
-        <v>4415</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="B68" t="s">
-        <v>4404</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="B70" t="s">
-        <v>4405</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="B71" t="s">
-        <v>4406</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" t="s">
-        <v>4407</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="B74" t="s">
-        <v>4408</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" t="s">
-        <v>4409</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>4410</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" t="s">
-        <v>4411</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>4412</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>4413</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>4414</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="25" t="s">
-        <v>4500</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" t="s">
-        <v>4502</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="B89" t="s">
-        <v>4503</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="B90" t="s">
-        <v>4504</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="25" t="s">
-        <v>4522</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="97" spans="2:8">
       <c r="B97" t="s">
-        <v>4523</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="98" spans="2:8">
       <c r="B98" s="358" t="s">
-        <v>4532</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="100" spans="2:8">
       <c r="B100" t="s">
-        <v>4524</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="101" spans="2:8">
       <c r="B101" t="s">
-        <v>4525</v>
+        <v>4522</v>
       </c>
       <c r="H101" s="26" t="s">
-        <v>4533</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="102" spans="2:8">
       <c r="B102" t="s">
-        <v>4526</v>
+        <v>4523</v>
       </c>
       <c r="H102" s="26" t="s">
-        <v>4534</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="103" spans="2:8">
       <c r="H103" s="99" t="s">
-        <v>4548</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="104" spans="2:8">
@@ -72701,76 +72802,76 @@
     </row>
     <row r="105" spans="2:8">
       <c r="B105" t="s">
-        <v>4527</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="106" spans="2:8">
       <c r="B106" t="s">
-        <v>4528</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="108" spans="2:8">
       <c r="B108" t="s">
-        <v>4529</v>
+        <v>4526</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>4535</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="109" spans="2:8">
       <c r="B109" t="s">
-        <v>4530</v>
+        <v>4527</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>4536</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="110" spans="2:8">
       <c r="B110" t="s">
-        <v>4531</v>
+        <v>4528</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>4537</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="111" spans="2:8">
       <c r="F111" s="26" t="s">
-        <v>4538</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="112" spans="2:8">
       <c r="F112" s="26" t="s">
-        <v>4539</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="F113" s="26" t="s">
-        <v>4540</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="F114" s="26" t="s">
-        <v>4541</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="C116" s="25" t="s">
-        <v>4543</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="D117" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="D119" t="s">
-        <v>4545</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="E121" t="s">
-        <v>4542</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -72780,75 +72881,75 @@
     </row>
     <row r="123" spans="1:6">
       <c r="C123" s="25" t="s">
-        <v>4546</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="D124" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="E125" s="99" t="s">
-        <v>4548</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="25" t="s">
-        <v>4549</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="B130" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>4552</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" t="s">
-        <v>4523</v>
+        <v>4520</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>4553</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="B132" t="s">
-        <v>4503</v>
+        <v>4500</v>
       </c>
       <c r="G132" s="26" t="s">
-        <v>4554</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="G133" s="26" t="s">
-        <v>4555</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" t="s">
-        <v>4559</v>
+        <v>4556</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>4556</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="135" spans="2:7">
       <c r="B135" t="s">
-        <v>4550</v>
+        <v>4547</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>4557</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="B136" t="s">
-        <v>4551</v>
+        <v>4548</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>4558</v>
+        <v>4555</v>
       </c>
     </row>
   </sheetData>
@@ -75778,52 +75879,52 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="25" t="s">
-        <v>4398</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" t="s">
-        <v>4393</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" t="s">
-        <v>4389</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" t="s">
-        <v>4390</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="B39" t="s">
-        <v>4391</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" t="s">
-        <v>4394</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="99" t="s">
-        <v>4392</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" t="s">
-        <v>4395</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="B45" s="99" t="s">
-        <v>4396</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="G46" s="26">
         <v>30000100</v>
@@ -75831,7 +75932,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="B47" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="G47" s="26">
         <v>30000101</v>
@@ -75839,7 +75940,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="G48" s="26">
         <v>30000102</v>
@@ -75847,7 +75948,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="B49" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="G49" s="26">
         <v>30000103</v>
@@ -75855,7 +75956,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="G50" s="26">
         <v>30000104</v>
@@ -75863,7 +75964,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="B51" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="G51" s="26">
         <v>30000105</v>
@@ -75871,7 +75972,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="B52" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="G52" s="26">
         <v>30000106</v>
@@ -75879,7 +75980,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="B53" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="G53" s="26">
         <v>30000107</v>
@@ -75887,32 +75988,32 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="25" t="s">
-        <v>4671</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="B57" t="s">
-        <v>4672</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="25" t="s">
-        <v>4673</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="C60" t="s">
-        <v>4674</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="C61" t="s">
-        <v>4675</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="C62" t="s">
-        <v>4676</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -75922,126 +76023,126 @@
     </row>
     <row r="65" spans="2:9">
       <c r="C65" t="s">
-        <v>4681</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="C66" t="s">
-        <v>4677</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="C67" t="s">
-        <v>4678</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="C68" t="s">
-        <v>4679</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="C69" t="s">
-        <v>4680</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="C71" s="364" t="s">
-        <v>4682</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="C73" t="s">
-        <v>4683</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="C74" t="s">
-        <v>4684</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="C75" t="s">
-        <v>4685</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="25" t="s">
-        <v>4686</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="C79" s="365" t="s">
-        <v>4330</v>
+        <v>4327</v>
       </c>
       <c r="D79" s="47"/>
       <c r="E79" s="365" t="s">
-        <v>4671</v>
+        <v>4668</v>
       </c>
       <c r="F79" s="105"/>
       <c r="G79" s="47"/>
       <c r="H79" s="365" t="s">
-        <v>4687</v>
+        <v>4684</v>
       </c>
       <c r="I79" s="47"/>
     </row>
     <row r="80" spans="2:9">
       <c r="C80" s="365" t="s">
-        <v>4688</v>
+        <v>4685</v>
       </c>
       <c r="D80" s="47"/>
       <c r="E80" s="46" t="s">
-        <v>4689</v>
+        <v>4686</v>
       </c>
       <c r="F80" s="105"/>
       <c r="G80" s="47"/>
       <c r="H80" s="46" t="s">
-        <v>4690</v>
+        <v>4687</v>
       </c>
       <c r="I80" s="47"/>
     </row>
     <row r="81" spans="3:9">
       <c r="C81" s="365" t="s">
-        <v>4691</v>
+        <v>4688</v>
       </c>
       <c r="D81" s="47"/>
       <c r="E81" s="46" t="s">
-        <v>4692</v>
+        <v>4689</v>
       </c>
       <c r="F81" s="105"/>
       <c r="G81" s="47"/>
       <c r="H81" s="46" t="s">
-        <v>4693</v>
+        <v>4690</v>
       </c>
       <c r="I81" s="47"/>
     </row>
     <row r="82" spans="3:9">
       <c r="C82" s="365" t="s">
-        <v>4694</v>
+        <v>4691</v>
       </c>
       <c r="D82" s="47"/>
       <c r="E82" s="46" t="s">
-        <v>4695</v>
+        <v>4692</v>
       </c>
       <c r="F82" s="105"/>
       <c r="G82" s="47"/>
       <c r="H82" s="46" t="s">
-        <v>4696</v>
+        <v>4693</v>
       </c>
       <c r="I82" s="47"/>
     </row>
     <row r="83" spans="3:9">
       <c r="C83" s="366" t="s">
-        <v>4697</v>
+        <v>4694</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="22" t="s">
-        <v>4698</v>
+        <v>4695</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
       <c r="H83" s="22" t="s">
-        <v>4699</v>
+        <v>4696</v>
       </c>
       <c r="I83" s="17"/>
     </row>
@@ -78595,27 +78696,27 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25" t="s">
-        <v>4700</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>4701</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>4702</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="C40" s="367" t="s">
-        <v>4703</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="C41" t="s">
-        <v>4704</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -78629,61 +78730,61 @@
     <row r="45" spans="1:8">
       <c r="B45" s="25"/>
       <c r="C45" s="25" t="s">
-        <v>4705</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="C46" t="s">
-        <v>4711</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="C47" t="s">
-        <v>4708</v>
+        <v>4705</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>4709</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="50" spans="3:8">
       <c r="C50" s="25" t="s">
-        <v>4706</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>4707</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>4712</v>
+        <v>4709</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>4710</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>4713</v>
+        <v>4710</v>
       </c>
       <c r="H53" s="367" t="s">
-        <v>4714</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="25" t="s">
-        <v>4715</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="D56" t="s">
-        <v>4716</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="D57" t="s">
-        <v>4717</v>
+        <v>4714</v>
       </c>
     </row>
   </sheetData>
@@ -78712,32 +78813,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
-        <v>4506</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>4507</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>4508</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>4509</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="357" t="s">
-        <v>4511</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="357" t="s">
-        <v>4510</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -78747,82 +78848,82 @@
     </row>
     <row r="13" spans="1:3">
       <c r="C13" t="s">
-        <v>4512</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
-        <v>4513</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" t="s">
-        <v>4514</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="C17" t="s">
-        <v>4515</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" t="s">
-        <v>4516</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" t="s">
-        <v>4517</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>4518</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="C22" t="s">
-        <v>4519</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
-        <v>4520</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25" t="s">
-        <v>4521</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="25" t="s">
-        <v>4581</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="25" t="s">
-        <v>4582</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="C29" s="214" t="s">
-        <v>4583</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="C31" t="s">
-        <v>4586</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="D32" t="s">
-        <v>4584</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" t="s">
-        <v>4585</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -78832,67 +78933,67 @@
     </row>
     <row r="36" spans="2:4">
       <c r="D36" t="s">
-        <v>4587</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="D37" t="s">
-        <v>4588</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="D38" t="s">
-        <v>4589</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" t="s">
-        <v>4590</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" t="s">
-        <v>4591</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="D42" t="s">
-        <v>4592</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" t="s">
-        <v>4593</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" t="s">
-        <v>4594</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="25" t="s">
-        <v>4595</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" s="361" t="s">
-        <v>4596</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" t="s">
-        <v>4586</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="D52" t="s">
-        <v>4597</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="D53" t="s">
-        <v>4598</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="55" spans="3:4">
@@ -78902,102 +79003,102 @@
     </row>
     <row r="56" spans="3:4">
       <c r="D56" t="s">
-        <v>4607</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="D57" t="s">
-        <v>4610</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="D58" t="s">
-        <v>4599</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="60" spans="3:4">
       <c r="D60" t="s">
-        <v>4608</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="D61" t="s">
-        <v>4600</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="62" spans="3:4">
       <c r="D62" t="s">
-        <v>4601</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="64" spans="3:4">
       <c r="D64" t="s">
-        <v>4610</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="D65" t="s">
-        <v>4602</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="D67" t="s">
-        <v>4609</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="D68" t="s">
-        <v>4603</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="D69" t="s">
-        <v>4604</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="D70" t="s">
-        <v>4605</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="D72" t="s">
-        <v>4610</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="D73" t="s">
-        <v>4606</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="D75" t="s">
-        <v>4611</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="25" t="s">
-        <v>4612</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="C79" s="361" t="s">
-        <v>4613</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="81" spans="3:7">
       <c r="C81" t="s">
-        <v>4586</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="82" spans="3:7">
       <c r="D82" t="s">
-        <v>4614</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="83" spans="3:7">
       <c r="D83" t="s">
-        <v>4615</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="85" spans="3:7">
@@ -79007,22 +79108,22 @@
     </row>
     <row r="86" spans="3:7">
       <c r="D86" t="s">
-        <v>4616</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="87" spans="3:7">
       <c r="D87" t="s">
-        <v>4617</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="88" spans="3:7">
       <c r="D88" t="s">
-        <v>4618</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="90" spans="3:7">
       <c r="D90" t="s">
-        <v>4619</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="91" spans="3:7">
@@ -79032,45 +79133,45 @@
     </row>
     <row r="93" spans="3:7">
       <c r="D93" t="s">
-        <v>4621</v>
+        <v>4618</v>
       </c>
       <c r="G93" s="361" t="s">
-        <v>4622</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="94" spans="3:7">
       <c r="D94" t="s">
-        <v>4617</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="95" spans="3:7">
       <c r="D95" t="s">
-        <v>4620</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="25" t="s">
-        <v>4623</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="C99" s="361" t="s">
-        <v>4624</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="C101" t="s">
-        <v>4586</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="D102" t="s">
-        <v>4625</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="D103" t="s">
-        <v>4626</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -79080,87 +79181,87 @@
     </row>
     <row r="106" spans="2:4">
       <c r="D106" t="s">
-        <v>4629</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="D107" t="s">
-        <v>4633</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="D108" t="s">
-        <v>4599</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="D110" t="s">
-        <v>4630</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>4632</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="D112" t="s">
-        <v>4599</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="D114" t="s">
-        <v>4631</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="D115" t="s">
-        <v>4634</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="D116" t="s">
-        <v>4627</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="118" spans="2:4">
       <c r="D118" t="s">
-        <v>4632</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="D119" t="s">
-        <v>4628</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="121" spans="2:4">
       <c r="D121" t="s">
-        <v>4635</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="123" spans="2:4">
       <c r="B123" s="25" t="s">
-        <v>4636</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="124" spans="2:4">
       <c r="C124" s="361" t="s">
-        <v>4637</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="126" spans="2:4">
       <c r="C126" t="s">
-        <v>4638</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="D127" t="s">
-        <v>4639</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="D128" t="s">
-        <v>4640</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="130" spans="4:9">
@@ -79170,160 +79271,160 @@
     </row>
     <row r="132" spans="4:9">
       <c r="D132" t="s">
-        <v>4646</v>
+        <v>4643</v>
       </c>
       <c r="I132" t="s">
-        <v>4646</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="133" spans="4:9">
       <c r="D133" t="s">
-        <v>4641</v>
+        <v>4638</v>
       </c>
       <c r="I133" t="s">
-        <v>4641</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="134" spans="4:9">
       <c r="D134" t="s">
-        <v>4642</v>
+        <v>4639</v>
       </c>
       <c r="I134" t="s">
-        <v>4662</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="136" spans="4:9">
       <c r="D136" t="s">
-        <v>4647</v>
+        <v>4644</v>
       </c>
       <c r="I136" t="s">
-        <v>4647</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="137" spans="4:9">
       <c r="D137" t="s">
-        <v>4643</v>
+        <v>4640</v>
       </c>
       <c r="I137" t="s">
-        <v>4643</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="138" spans="4:9">
       <c r="D138" t="s">
-        <v>4644</v>
+        <v>4641</v>
       </c>
       <c r="I138" t="s">
-        <v>4663</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="140" spans="4:9">
       <c r="D140" t="s">
-        <v>4648</v>
+        <v>4645</v>
       </c>
       <c r="I140" t="s">
-        <v>4648</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="141" spans="4:9">
       <c r="D141" t="s">
-        <v>4649</v>
+        <v>4646</v>
       </c>
       <c r="I141" t="s">
-        <v>4310</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="142" spans="4:9">
       <c r="D142" t="s">
-        <v>4651</v>
+        <v>4648</v>
       </c>
       <c r="I142" s="31" t="s">
-        <v>4664</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="143" spans="4:9">
       <c r="D143" t="s">
-        <v>4650</v>
+        <v>4647</v>
       </c>
       <c r="I143" t="s">
-        <v>4665</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="144" spans="4:9">
       <c r="I144" t="s">
-        <v>4666</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="145" spans="4:12">
       <c r="D145" t="s">
-        <v>4645</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="146" spans="4:12">
       <c r="D146" t="s">
-        <v>4652</v>
+        <v>4649</v>
       </c>
       <c r="I146" t="s">
-        <v>4645</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="147" spans="4:12">
       <c r="D147" t="s">
-        <v>4653</v>
+        <v>4650</v>
       </c>
       <c r="I147" t="s">
-        <v>4652</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="148" spans="4:12">
       <c r="I148" t="s">
-        <v>4653</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="149" spans="4:12">
       <c r="D149" s="361" t="s">
-        <v>4654</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="150" spans="4:12">
       <c r="D150" s="361" t="s">
-        <v>4655</v>
+        <v>4652</v>
       </c>
       <c r="I150" t="s">
-        <v>4518</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="151" spans="4:12">
       <c r="D151" s="361" t="s">
-        <v>4656</v>
+        <v>4653</v>
       </c>
       <c r="I151" s="361" t="s">
-        <v>4667</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="152" spans="4:12">
       <c r="D152" s="361" t="s">
-        <v>4657</v>
+        <v>4654</v>
       </c>
       <c r="I152" s="347" t="s">
-        <v>4668</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="153" spans="4:12">
       <c r="D153" s="361"/>
       <c r="G153" s="26" t="s">
-        <v>4658</v>
+        <v>4655</v>
       </c>
       <c r="I153" s="347"/>
       <c r="L153" s="26" t="s">
-        <v>4669</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="154" spans="4:12">
       <c r="G154" s="26" t="s">
-        <v>4659</v>
+        <v>4656</v>
       </c>
       <c r="L154" s="26" t="s">
-        <v>4670</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="155" spans="4:12">
@@ -79336,12 +79437,12 @@
     </row>
     <row r="157" spans="4:12">
       <c r="D157" s="361" t="s">
-        <v>4660</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="158" spans="4:12">
       <c r="D158" s="361" t="s">
-        <v>4661</v>
+        <v>4658</v>
       </c>
     </row>
   </sheetData>
@@ -79356,8 +79457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -79369,34 +79470,34 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="25" t="s">
-        <v>4724</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>4726</v>
+        <v>4723</v>
       </c>
       <c r="H6" t="s">
-        <v>4727</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="370" t="s">
-        <v>4730</v>
+        <v>4727</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>4731</v>
+        <v>4728</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="20" t="s">
-        <v>4732</v>
+        <v>4729</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -79418,7 +79519,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="20" t="s">
-        <v>4725</v>
+        <v>4722</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -79430,45 +79531,45 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="22" t="s">
-        <v>4729</v>
+        <v>4726</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="17"/>
       <c r="H11" s="22" t="s">
-        <v>4728</v>
+        <v>4725</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="17"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>4736</v>
+        <v>4733</v>
       </c>
       <c r="H13" t="s">
-        <v>4733</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" s="26" t="s">
-        <v>4734</v>
+        <v>4731</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>4734</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="C15" s="26" t="s">
-        <v>4737</v>
+        <v>4734</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>4735</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" t="s">
-        <v>4738</v>
+        <v>4735</v>
       </c>
     </row>
   </sheetData>
@@ -82084,13 +82185,13 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="87" t="s">
-        <v>4368</v>
+        <v>4365</v>
       </c>
       <c r="C385" s="87" t="s">
-        <v>4376</v>
+        <v>4373</v>
       </c>
       <c r="E385" s="87" t="s">
-        <v>4387</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -82111,35 +82212,35 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="12" t="s">
-        <v>4369</v>
+        <v>4366</v>
       </c>
       <c r="C388" s="12" t="s">
-        <v>4369</v>
+        <v>4366</v>
       </c>
       <c r="E388" s="12" t="s">
-        <v>4369</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="91" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
       <c r="C389" s="91" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
       <c r="E389" s="91" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="91" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
       <c r="C390" s="91" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
       <c r="E390" s="91" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -82147,7 +82248,7 @@
         <v>878</v>
       </c>
       <c r="C391" s="91" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
       <c r="E391" s="12" t="s">
         <v>878</v>
@@ -82162,76 +82263,76 @@
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="12" t="s">
-        <v>4371</v>
+        <v>4368</v>
       </c>
       <c r="C393" s="12"/>
       <c r="E393" s="12" t="s">
-        <v>4371</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="12" t="s">
-        <v>4375</v>
+        <v>4372</v>
       </c>
       <c r="C394" s="12" t="s">
-        <v>4371</v>
+        <v>4368</v>
       </c>
       <c r="E394" s="12"/>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="12"/>
       <c r="C395" s="168" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E395" s="12" t="s">
         <v>4377</v>
-      </c>
-      <c r="E395" s="12" t="s">
-        <v>4380</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="12" t="s">
-        <v>4372</v>
+        <v>4369</v>
       </c>
       <c r="C396" s="12"/>
       <c r="E396" s="12" t="s">
-        <v>4381</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="12" t="s">
-        <v>4373</v>
+        <v>4370</v>
       </c>
       <c r="C397" s="12" t="s">
-        <v>4372</v>
+        <v>4369</v>
       </c>
       <c r="E397" s="12"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="12" t="s">
+        <v>4376</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>4370</v>
+      </c>
+      <c r="E398" s="12" t="s">
         <v>4379</v>
-      </c>
-      <c r="C398" s="12" t="s">
-        <v>4373</v>
-      </c>
-      <c r="E398" s="12" t="s">
-        <v>4382</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="12"/>
       <c r="C399" s="12" t="s">
-        <v>4378</v>
+        <v>4375</v>
       </c>
       <c r="E399" s="12" t="s">
-        <v>4383</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="12" t="s">
-        <v>4374</v>
+        <v>4371</v>
       </c>
       <c r="C400" s="12"/>
       <c r="E400" s="12" t="s">
-        <v>4384</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -82239,7 +82340,7 @@
         <v>2757</v>
       </c>
       <c r="C401" s="12" t="s">
-        <v>4374</v>
+        <v>4371</v>
       </c>
       <c r="E401" s="12" t="s">
         <v>126</v>
@@ -82250,26 +82351,26 @@
         <v>2757</v>
       </c>
       <c r="E402" s="12" t="s">
-        <v>4385</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="26" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
       <c r="E403" s="12"/>
     </row>
     <row r="404" spans="1:5">
       <c r="C404" s="44" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
       <c r="E404" s="12" t="s">
-        <v>4386</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="405" spans="1:5">
       <c r="C405" s="44" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
       <c r="E405" s="11" t="s">
         <v>3929</v>
@@ -82277,12 +82378,12 @@
     </row>
     <row r="406" spans="1:5">
       <c r="E406" s="18" t="s">
-        <v>4388</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="407" spans="1:5">
       <c r="E407" s="44" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -82290,7 +82391,7 @@
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="25" t="s">
-        <v>4499</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -82305,7 +82406,7 @@
     </row>
     <row r="413" spans="1:5">
       <c r="A413" t="s">
-        <v>4489</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -82318,7 +82419,7 @@
     </row>
     <row r="416" spans="1:5">
       <c r="A416" t="s">
-        <v>4490</v>
+        <v>4487</v>
       </c>
       <c r="C416" s="26" t="b">
         <v>0</v>
@@ -82326,42 +82427,42 @@
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="25" t="s">
-        <v>4491</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>4492</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>4493</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="25" t="s">
-        <v>4494</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>4495</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="25" t="s">
-        <v>4496</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>4497</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>4498</v>
+        <v>4495</v>
       </c>
     </row>
   </sheetData>
